--- a/files/result_fl.xlsx
+++ b/files/result_fl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anupz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5169E76-2B6A-4F1E-92B5-F03FFB62F23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA51A9-91C3-4C98-A001-1157499D747D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="3390" windowWidth="21555" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -75,28 +75,43 @@
     <t>Driver,Cleaner</t>
   </si>
   <si>
-    <t>Anoop</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>anoopjoy8@gmail.com</t>
-  </si>
-  <si>
-    <t>Cleaner,Driver</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>arun23@sd.in</t>
-  </si>
-  <si>
-    <t>Admin,Keeper</t>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Addrees line 3</t>
+  </si>
+  <si>
+    <t>manoj@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Driver,Cleaner,Dancer</t>
+  </si>
+  <si>
+    <t>Bincy</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>bincy45@youdomain.com</t>
+  </si>
+  <si>
+    <t>Kuku</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address line 5 </t>
+  </si>
+  <si>
+    <t>kuku@youdomain.com</t>
+  </si>
+  <si>
+    <t>Driver,Admin</t>
   </si>
   <si>
     <t/>
@@ -108,10 +123,13 @@
     <t>successfully updated</t>
   </si>
   <si>
-    <t>Address missing</t>
-  </si>
-  <si>
-    <t>Last name missing,Keeper is not a valid role</t>
+    <t>Dancer is not a valid role</t>
+  </si>
+  <si>
+    <t>Address missing,role missing</t>
+  </si>
+  <si>
+    <t>successfully added</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +157,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,9 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -462,19 +484,19 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="10.95703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.64453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.80859375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="21.9296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.0703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="24.55859375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.3046875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.3125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="13.91015625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="39.9453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.81640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,55 +584,72 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>87832327676</v>
-      </c>
-      <c r="F4" s="5">
-        <v>34470</v>
+        <v>45124572199</v>
+      </c>
+      <c r="F4" s="4">
+        <v>29746</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>90456766762</v>
+        <v>679812345</v>
       </c>
       <c r="F5" s="4">
-        <v>32938</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>36563</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5612232321</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29384</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -793,13 +832,15 @@
       <c r="G26" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A622EDC6-A2AE-4F39-A5EE-E6742B3FCA02}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{7AD575FC-D9BA-4F20-B3FD-106C9AD3E42A}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{065F32DE-489E-454B-8C11-85A9DFF151F0}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{63D9A4CD-EC3D-44B7-BEBC-46979706BD3B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{24C56A08-256A-467A-9318-D8DFBBCC6DEA}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{8876D0D5-723B-4856-9ECC-81BB788AFA65}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B6AF73DB-6662-43BA-AD82-0D7C33CD120C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>